--- a/public/data/soil/soil_table_somalia.xlsx
+++ b/public/data/soil/soil_table_somalia.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62458.1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.857</v>
+        <v>33.052</v>
       </c>
     </row>
     <row r="3">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66368.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>11.379</v>
+        <v>11.929</v>
       </c>
     </row>
     <row r="4">
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>17115.7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.435</v>
+        <v>20.934</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>53122.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.911</v>
+        <v>28.744</v>
       </c>
     </row>
     <row r="6">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>103983.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>30.311</v>
+        <v>36.729</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>73636.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>42.071</v>
+        <v>49.791</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>88847.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>98.177</v>
+        <v>91.803</v>
       </c>
     </row>
     <row r="9">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>43657.1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>63.018</v>
+        <v>51.636</v>
       </c>
     </row>
     <row r="10">
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>79249.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>100.848</v>
+        <v>113.312</v>
       </c>
     </row>
     <row r="11">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6208.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>192152.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.104</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="13">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>125691.9</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>97.731</v>
+        <v>134.056</v>
       </c>
     </row>
     <row r="14">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>95564.7</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.238</v>
+        <v>51.075</v>
       </c>
     </row>
     <row r="15">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>268484.1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>28.649</v>
+        <v>52.082</v>
       </c>
     </row>
     <row r="16">
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>176402.3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>44.173</v>
+        <v>50.012</v>
       </c>
     </row>
     <row r="17">
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>291441.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>62.349</v>
+        <v>98.029</v>
       </c>
     </row>
     <row r="18">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>234475.9</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>215.494</v>
+        <v>213.696</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>297230.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>136.382</v>
+        <v>136.524</v>
       </c>
     </row>
     <row r="20">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>149865.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>93.982</v>
+        <v>94.039</v>
       </c>
     </row>
     <row r="21">
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>67954.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>61.593</v>
+        <v>62.016</v>
       </c>
     </row>
     <row r="22">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89470.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>51.543</v>
+        <v>51.516</v>
       </c>
     </row>
     <row r="23">
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>110737.6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>54.16</v>
+        <v>54.893</v>
       </c>
     </row>
     <row r="24">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>218205.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>96.022</v>
+        <v>95.127</v>
       </c>
     </row>
     <row r="25">
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141825.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.488</v>
+        <v>93.276</v>
       </c>
     </row>
     <row r="26">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>195956.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>109.749</v>
+        <v>110.349</v>
       </c>
     </row>
     <row r="27">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>231194.3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>102.724</v>
+        <v>106.422</v>
       </c>
     </row>
     <row r="28">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57876.1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>67.584</v>
+        <v>69.177</v>
       </c>
     </row>
     <row r="29">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>108243</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>25.562</v>
+        <v>27.198</v>
       </c>
     </row>
     <row r="30">
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34417.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>18.963</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="31">
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>128305.8</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>70.161</v>
+        <v>71.337</v>
       </c>
     </row>
     <row r="32">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>176558.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>65.223</v>
+        <v>72.689</v>
       </c>
     </row>
     <row r="33">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>240188</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>147.119</v>
+        <v>157.888</v>
       </c>
     </row>
     <row r="34">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>279329.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>122.824</v>
+        <v>127.64</v>
       </c>
     </row>
     <row r="35">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>83725.3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>38.735</v>
+        <v>41.536</v>
       </c>
     </row>
     <row r="36">
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>87306</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>52.456</v>
+        <v>45.018</v>
       </c>
     </row>
     <row r="37">
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>88677.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>80.956</v>
+        <v>83.526</v>
       </c>
     </row>
     <row r="38">
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>134972.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>56.082</v>
+        <v>55.918</v>
       </c>
     </row>
     <row r="39">
@@ -2191,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>129.9</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>401419.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>65.371</v>
+        <v>67.863</v>
       </c>
     </row>
     <row r="40">
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>135707.7</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>42.752</v>
+        <v>46.909</v>
       </c>
     </row>
     <row r="41">
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>45960.5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7.42</v>
+        <v>5.061</v>
       </c>
     </row>
     <row r="42">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>126148.1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>106.755</v>
+        <v>109.778</v>
       </c>
     </row>
     <row r="43">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>252582.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>151.866</v>
+        <v>168.872</v>
       </c>
     </row>
     <row r="44">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34377.2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>38.884</v>
+        <v>40.388</v>
       </c>
     </row>
     <row r="45">
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>435955.7</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>61.092</v>
+        <v>83.814</v>
       </c>
     </row>
     <row r="46">
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>199922.6</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>35.738</v>
+        <v>43.834</v>
       </c>
     </row>
     <row r="47">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>58482</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>48.486</v>
+        <v>71.308</v>
       </c>
     </row>
     <row r="48">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>143624.8</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>36.155</v>
+        <v>43.912</v>
       </c>
     </row>
     <row r="49">
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>193809.2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>31.854</v>
+        <v>39.505</v>
       </c>
     </row>
     <row r="50">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>125412.8</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>33.497</v>
+        <v>61.451</v>
       </c>
     </row>
     <row r="51">
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>172899</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>61.011</v>
+        <v>109.083</v>
       </c>
     </row>
     <row r="52">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>262411.9</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>57.442</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="53">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>305345</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>75.412</v>
+        <v>134.662</v>
       </c>
     </row>
     <row r="54">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>94668.1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>58.383</v>
+        <v>60.823</v>
       </c>
     </row>
     <row r="55">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>138173.6</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>44.692</v>
+        <v>54.872</v>
       </c>
     </row>
     <row r="56">
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>151107.8</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>51.967</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="57">
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>193224.2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>42.902</v>
+        <v>35.249</v>
       </c>
     </row>
     <row r="58">
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>129746.1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>30.795</v>
+        <v>27.995</v>
       </c>
     </row>
     <row r="59">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>50825.8</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>32.083</v>
+        <v>36.506</v>
       </c>
     </row>
     <row r="60">
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>63211.4</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>24.221</v>
+        <v>21.059</v>
       </c>
     </row>
     <row r="61">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>39166.4</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>93048.9</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>49.068</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="63">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>114136.3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>52.985</v>
+        <v>51.324</v>
       </c>
     </row>
     <row r="64">
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>174793.2</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>87.732</v>
+        <v>80.416</v>
       </c>
     </row>
     <row r="65">
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>181803.9</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>31.41</v>
+        <v>38.637</v>
       </c>
     </row>
     <row r="66">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>132565</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>46.551</v>
+        <v>94.864</v>
       </c>
     </row>
     <row r="67">
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>96304.7</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>12.497</v>
+        <v>29.927</v>
       </c>
     </row>
     <row r="68">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>114117.4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>11.101</v>
+        <v>24.169</v>
       </c>
     </row>
     <row r="69">
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>293824.1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>266.197</v>
+        <v>273.943</v>
       </c>
     </row>
     <row r="70">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>97393.4</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>40.757</v>
+        <v>52.755</v>
       </c>
     </row>
     <row r="71">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>178231.3</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>51.895</v>
+        <v>67.043</v>
       </c>
     </row>
     <row r="72">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>61469.7</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>33.081</v>
+        <v>39.002</v>
       </c>
     </row>
     <row r="73">
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>91946.2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>23.328</v>
+        <v>62.104</v>
       </c>
     </row>
     <row r="74">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>114171.8</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>59.845</v>
+        <v>69.131</v>
       </c>
     </row>
     <row r="75">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>340218.5</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>163.505</v>
+        <v>163.648</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_somalia.xlsx
+++ b/public/data/soil/soil_table_somalia.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1266.1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5475.4</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>927.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>608.1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1453.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4086.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2961.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8438.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4282</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>51272.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>49766.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>13173.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>31127.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7269.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9082.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>98.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>23337.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>100.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2978.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4701.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6973.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7472.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>31929</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>21014.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15730.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>37055</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6442.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>26706.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57878.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>17275.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>35767</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1099.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4629.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2354.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>241.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2806.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>13324.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>36146</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>14243.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>29664.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>42527.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>6673.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>14357.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>18761.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>28004.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>4911.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>13146.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>524.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>2026.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>614.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>3498.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>161.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1942</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>3639.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>451.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
